--- a/step3_noise_generation/error_reports_xlsx/space_errors.xlsx
+++ b/step3_noise_generation/error_reports_xlsx/space_errors.xlsx
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>EuropeanUnion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>European Union</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Roosevelt, Winston Churchill, and Joseph Stalin during WorldWar II, although the term summit was not commonly used for such meetings until the 1955 Geneva Summit.</t>
+          <t>She negotiated the 2008 EuropeanUnion stimulus plan, which focused on infrastructure spending and public investment to counteract the Great Recession.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Roosevelt, Winston Churchill, and Joseph Stalin during World War II, although the term summit was not commonly used for such meetings until the 1955 Geneva Summit.</t>
+          <t>She negotiated the 2008 European Union stimulus plan, which focused on infrastructure spending and public investment to counteract the Great Recession.</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister's</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister's</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Initially, its loans helped rebuild countries devastated by WorldWar II.</t>
+          <t>The appointment of cabinet ministers and granting of honours are done through the primeminister's power of appointment.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Initially, its loans helped rebuild countries devastated by World War II.</t>
+          <t>The appointment of cabinet ministers and granting of honours are done through the prime minister's power of appointment.</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Founded in 1636, and named in 1639 for its first benefactor, the Puritan clergyman John Harvard, it is the oldest institution of higher learning in the UnitedStates.</t>
+          <t>Conant led the university through the Great Depression and WorldWar II, and liberalized admissions after the war.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Founded in 1636, and named in 1639 for its first benefactor, the Puritan clergyman John Harvard, it is the oldest institution of higher learning in the United States.</t>
+          <t>Conant led the university through the Great Depression and World War II, and liberalized admissions after the war.</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NewYork</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A member of the Democratic Party, Roosevelt served in the NewYork State Senate from 1911 to 1913 and as the 44th governor of New York from 1929 to 1932.</t>
+          <t>He won the Battle of Marengo in 1800, which secured France's victory in the War of the Second Coalition, and in 1803, he sold the territory of Louisiana to the UnitedStates.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A member of the Democratic Party, Roosevelt served in the New York State Senate from 1911 to 1913 and as the 44th governor of New York from 1929 to 1932.</t>
+          <t>He won the Battle of Marengo in 1800, which secured France's victory in the War of the Second Coalition, and in 1803, he sold the territory of Louisiana to the United States.</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>By 2022, "Netflix Original" productions accounted for half of its library in the UnitedStates and the namesake company had ventured into other categories, such as video game publishing of mobile games through its flagship service.</t>
+          <t>The Soviet Union (Interkosmos), the UnitedStates (NASA), China (CNSA), India (ISRO), and Japan (JAXA) are the only five nations to have successfully achieved soft landings.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>By 2022, "Netflix Original" productions accounted for half of its library in the United States and the namesake company had ventured into other categories, such as video game publishing of mobile games through its flagship service.</t>
+          <t>The Soviet Union (Interkosmos), the United States (NASA), China (CNSA), India (ISRO), and Japan (JAXA) are the only five nations to have successfully achieved soft landings.</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"primeminister"</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"prime minister"</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The term "primeminister" is attested in 17th century sources referring to Cardinal Richelieu, after he was named premier ministre to head the French royal council in 1624.</t>
+          <t>Modern architecture began after WorldWar I as an avant-garde movement that sought to develop a completely new style appropriate for a new post-war social and economic order focused on meeting the needs of the middle and working classes.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The term "prime minister" is attested in 17th century sources referring to Cardinal Richelieu, after he was named premier ministre to head the French royal council in 1624.</t>
+          <t>Modern architecture began after World War I as an avant-garde movement that sought to develop a completely new style appropriate for a new post-war social and economic order focused on meeting the needs of the middle and working classes.</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Modern architecture began after WorldWar I as an avant-garde movement that sought to develop a completely new style appropriate for a new post-war social and economic order focused on meeting the needs of the middle and working classes.</t>
+          <t>The power of the primeminister depends on the support of their respective party and on the popular mandate.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Modern architecture began after World War I as an avant-garde movement that sought to develop a completely new style appropriate for a new post-war social and economic order focused on meeting the needs of the middle and working classes.</t>
+          <t>The power of the prime minister depends on the support of their respective party and on the popular mandate.</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>primeministers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>prime ministers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Despite Dayton, Ohio being the birthplace of aviation, by 1914 the UnitedStates recognized that it was far behind Europe in aviation capability.</t>
+          <t>Since the Confederation of Canada in 1867, 24 primeministers have formed 30 ministries.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Despite Dayton, Ohio being the birthplace of aviation, by 1914 the United States recognized that it was far behind Europe in aviation capability.</t>
+          <t>Since the Confederation of Canada in 1867, 24 prime ministers have formed 30 ministries.</t>
         </is>
       </c>
     </row>
@@ -672,22 +672,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MiddleEast.</t>
+          <t>NewYork,</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Middle East.</t>
+          <t>New York,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The unification of Greece by Macedon under Philip II and subsequent conquest of the Achaemenid Empire by Alexander the Great spread Hellenistic civilization across the MiddleEast.</t>
+          <t>The term global city was subsequently popularized by sociologist Saskia Sassen in her work The Global City: NewYork, London, Tokyo (1991).</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The unification of Greece by Macedon under Philip II and subsequent conquest of the Achaemenid Empire by Alexander the Great spread Hellenistic civilization across the Middle East.</t>
+          <t>The term global city was subsequently popularized by sociologist Saskia Sassen in her work The Global City: New York, London, Tokyo (1991).</t>
         </is>
       </c>
     </row>
@@ -699,22 +699,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NewYork</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Born into a wealthy NewYork City family, Trump graduated from the University of Pennsylvania in 1968 with a bachelor's degree in economics.</t>
+          <t>Since then, that characterisation of the primeminister has changed to be reflective of the democratic nature of their position, but also their heightened importance.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Born into a wealthy New York City family, Trump graduated from the University of Pennsylvania in 1968 with a bachelor's degree in economics.</t>
+          <t>Since then, that characterisation of the prime minister has changed to be reflective of the democratic nature of their position, but also their heightened importance.</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UnitedStates'</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>United States'</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The ISS program combines two previously planned crewed Earth-orbiting stations: the UnitedStates' Space Station Freedom and the Soviet Union's Mir-2.</t>
+          <t>The power of the office of primeminister has grown significantly since the first prime minister, Robert Walpole in 1721.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The ISS program combines two previously planned crewed Earth-orbiting stations: the United States' Space Station Freedom and the Soviet Union's Mir-2.</t>
+          <t>The power of the office of prime minister has grown significantly since the first prime minister, Robert Walpole in 1721.</t>
         </is>
       </c>
     </row>
@@ -753,22 +753,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>primeminister,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>prime minister,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The longest-serving primeminister was Shinzo Abe, who served over eight years across two non-consecutive terms, and the shortest-serving was Prince Naruhiko Higashikuni, who served fifty-four days.</t>
+          <t>However, constitutional amendments approved in the 2017 constitutional referendum abolished the office of primeminister, and vested the presidency with full executive powers, effective upon the 2018 general election.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The longest-serving prime minister was Shinzo Abe, who served over eight years across two non-consecutive terms, and the shortest-serving was Prince Naruhiko Higashikuni, who served fifty-four days.</t>
+          <t>However, constitutional amendments approved in the 2017 constitutional referendum abolished the office of prime minister, and vested the presidency with full executive powers, effective upon the 2018 general election.</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The causes of WorldWar II included unresolved tensions in the aftermath of World War I, and the rise of fascism in Europe and militarism in Japan.</t>
+          <t>In the 20th century, Communist governments espousing Marxism–Leninism came to power, first in the Soviet Union with the 1917 Russian Revolution, then in Eastern Europe, Asia, and other regions after WorldWar II.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The causes of World War II included unresolved tensions in the aftermath of World War I, and the rise of fascism in Europe and militarism in Japan.</t>
+          <t>In the 20th century, Communist governments espousing Marxism–Leninism came to power, first in the Soviet Union with the 1917 Russian Revolution, then in Eastern Europe, Asia, and other regions after World War II.</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The 1st UnitedStates Congress provided the detailed organization of a federal judiciary through the Judiciary Act of 1789.</t>
+          <t>Colleges and universities in the UnitedStates have often published official or unofficial books listing their students, faculty, or staff, together with pictures and limited biographical data.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The 1st United States Congress provided the detailed organization of a federal judiciary through the Judiciary Act of 1789.</t>
+          <t>Colleges and universities in the United States have often published official or unofficial books listing their students, faculty, or staff, together with pictures and limited biographical data.</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>SouthKorean</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>South Korean</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>As of 2025, Netflix is the 18th most-visited website in the world, with 21.18% of its traffic coming from the UnitedStates, followed by the United Kingdom at 6.01%, Canada at 4.94%, and Brazil at 4.24%.</t>
+          <t>Chapter 3 of the SouthKorean constitution states the duties and the powers of the president.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>As of 2025, Netflix is the 18th most-visited website in the world, with 21.18% of its traffic coming from the United States, followed by the United Kingdom at 6.01%, Canada at 4.94%, and Brazil at 4.24%.</t>
+          <t>Chapter 3 of the South Korean constitution states the duties and the powers of the president.</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>However, its involvement in the First WorldWar and in the Second World War damaged Britain's economic power, and a global wave of decolonisation led to the independence of most British colonies.</t>
+          <t>He led the UnitedStates through the American Civil War, defeating the Confederate States and playing a major role in the abolition of slavery.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>However, its involvement in the First World War and in the Second World War damaged Britain's economic power, and a global wave of decolonisation led to the independence of most British colonies.</t>
+          <t>He led the United States through the American Civil War, defeating the Confederate States and playing a major role in the abolition of slavery.</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Spanish colonization established Spanish Florida in 1513, the first European colony in what is now the continental UnitedStates.</t>
+          <t>In 1933, while Einstein was visiting the UnitedStates, Adolf Hitler came to power in Germany.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Spanish colonization established Spanish Florida in 1513, the first European colony in what is now the continental United States.</t>
+          <t>In 1933, while Einstein was visiting the United States, Adolf Hitler came to power in Germany.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HumanRights</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Human Rights</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>In the Castilian colonization of America, it is often stated, measures were applied in which the germs of the idea of HumanRights are present, debated in the well-known Valladolid Debate that took place in 1550 and 1551.</t>
+          <t>Abraham Lincoln (February 12, 1809 – April 15, 1865) was the 16th president of the UnitedStates, serving from 1861 until his assassination in 1865.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>In the Castilian colonization of America, it is often stated, measures were applied in which the germs of the idea of Human Rights are present, debated in the well-known Valladolid Debate that took place in 1550 and 1551.</t>
+          <t>Abraham Lincoln (February 12, 1809 – April 15, 1865) was the 16th president of the United States, serving from 1861 until his assassination in 1865.</t>
         </is>
       </c>
     </row>
@@ -942,22 +942,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>NewYork</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Founded as a radical revolutionary group seeking to prevent a collapse of the Ottoman Empire, by the eve of WorldWar I it decided that the solution was to implement nationalist and centralizing policies.</t>
+          <t>However, partly through the encouragement of his wife Eleanor, he returned to public office upon being elected governor of NewYork in 1928.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Founded as a radical revolutionary group seeking to prevent a collapse of the Ottoman Empire, by the eve of World War I it decided that the solution was to implement nationalist and centralizing policies.</t>
+          <t>However, partly through the encouragement of his wife Eleanor, he returned to public office upon being elected governor of New York in 1928.</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The Turkish National Movement carried out massacres and deportations to eliminate native Christian populations – a continuation of the Armenian genocide and other ethnic cleansing operations during WorldWar I.</t>
+          <t>He rose to prominence with his role in the Defence of Gallipoli during WorldWar I.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The Turkish National Movement carried out massacres and deportations to eliminate native Christian populations – a continuation of the Armenian genocide and other ethnic cleansing operations during World War I.</t>
+          <t>He rose to prominence with his role in the Defence of Gallipoli during World War I.</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>In most systems, the primeminister is the presiding member and chairman of the cabinet.</t>
+          <t>The primeminister also selects individuals for appointment as governor general, provincial lieutenant governors, territorial commissioners, as well as to the Senate of Canada, Supreme Court of Canada, other federal courts, and senior members of the military and public service.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>In most systems, the prime minister is the presiding member and chairman of the cabinet.</t>
+          <t>The prime minister also selects individuals for appointment as governor general, provincial lieutenant governors, territorial commissioners, as well as to the Senate of Canada, Supreme Court of Canada, other federal courts, and senior members of the military and public service.</t>
         </is>
       </c>
     </row>
@@ -1023,22 +1023,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The National Diet (parliament) nominates the primeminister from among its members (typically from among the members of the House of Representatives).</t>
+          <t>Donald John Trump (born June 14, 1946) is an American politician, media personality, and businessman who is the 47th president of the UnitedStates.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The National Diet (parliament) nominates the prime minister from among its members (typically from among the members of the House of Representatives).</t>
+          <t>Donald John Trump (born June 14, 1946) is an American politician, media personality, and businessman who is the 47th president of the United States.</t>
         </is>
       </c>
     </row>
@@ -1050,22 +1050,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>primeministerial</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>prime ministerial</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>During the premierships of Margaret Thatcher and Tony Blair, primeministerial power expanded substantially, and their leaderships in the office were described as "presidential" due to their personal wielding of power and tight control over the cabinet.</t>
+          <t>The primeminister must retain the confidence of the House of Representatives to remain in office.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>During the premierships of Margaret Thatcher and Tony Blair, prime ministerial power expanded substantially, and their leaderships in the office were described as "presidential" due to their personal wielding of power and tight control over the cabinet.</t>
+          <t>The prime minister must retain the confidence of the House of Representatives to remain in office.</t>
         </is>
       </c>
     </row>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>WorldWar,</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>World War,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Under Article Three of the UnitedStates Constitution, the composition and procedures of the Supreme Court were originally established by the 1st Congress through the Judiciary Act of 1789.</t>
+          <t>Indeed, when the Fourth Republic was created, after the Second WorldWar, it was a parliamentary system, in which the office of President of the Republic was a largely ceremonial one.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Under Article Three of the United States Constitution, the composition and procedures of the Supreme Court were originally established by the 1st Congress through the Judiciary Act of 1789.</t>
+          <t>Indeed, when the Fourth Republic was created, after the Second World War, it was a parliamentary system, in which the office of President of the Republic was a largely ceremonial one.</t>
         </is>
       </c>
     </row>
@@ -1104,22 +1104,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>primeminister,</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>prime minister,</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>In fact, the primeminister, along with the other ministers in Cabinet, is appointed by the governor general on behalf of the monarch.</t>
+          <t>Not outlined in any constitutional document, the primeminister is appointed by the monarch's representative, the governor general, and the office exists per long-established convention.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>In fact, the prime minister, along with the other ministers in Cabinet, is appointed by the governor general on behalf of the monarch.</t>
+          <t>Not outlined in any constitutional document, the prime minister is appointed by the monarch's representative, the governor general, and the office exists per long-established convention.</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MiddleEast,</t>
+          <t>primeminister,</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Middle East,</t>
+          <t>prime minister,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>It is considered to be a regional power in the MiddleEast, North Africa and the Muslim world, and a middle power worldwide.</t>
+          <t>In May 1940, he became primeminister, succeeding Neville Chamberlain.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>It is considered to be a regional power in the Middle East, North Africa and the Muslim world, and a middle power worldwide.</t>
+          <t>In May 1940, he became prime minister, succeeding Neville Chamberlain.</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>NorthKorea,</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>North Korea,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>After the end of WorldWar II, NACA became interested in the possibilities of guided missiles and supersonic aircraft, developing and testing the Bell X-1 in a joint program with the US Air Force.</t>
+          <t>Except NorthKorea, these have allowed more economic competition while maintaining one-party rule.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>After the end of World War II, NACA became interested in the possibilities of guided missiles and supersonic aircraft, developing and testing the Bell X-1 in a joint program with the US Air Force.</t>
+          <t>Except North Korea, these have allowed more economic competition while maintaining one-party rule.</t>
         </is>
       </c>
     </row>
@@ -1185,22 +1185,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The power of the primeminister depends on the support of their respective party and on the popular mandate.</t>
+          <t>As of 2013 it has sold 180,000 copies in UnitedStates according to Nielsen SoundScan.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The power of the prime minister depends on the support of their respective party and on the popular mandate.</t>
+          <t>As of 2013 it has sold 180,000 copies in United States according to Nielsen SoundScan.</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MiddleEastern</t>
+          <t>primeminister,</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Middle Eastern</t>
+          <t>prime minister,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>While the traditional MiddleEastern views on interest were the result of the urbanized, economically developed character of the societies that produced them, the new Jewish prohibition on interest showed a pastoral, tribal influence.</t>
+          <t>As of 2026, Sixty-six people (sixty-five men and one woman) have served as primeminister, the first of whom was Itō Hirobumi taking office on 22 December 1885.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>While the traditional Middle Eastern views on interest were the result of the urbanized, economically developed character of the societies that produced them, the new Jewish prohibition on interest showed a pastoral, tribal influence.</t>
+          <t>As of 2026, Sixty-six people (sixty-five men and one woman) have served as prime minister, the first of whom was Itō Hirobumi taking office on 22 December 1885.</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>MiddleEast</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>In the 20th century, Communist governments espousing Marxism–Leninism came to power, first in the Soviet Union with the 1917 Russian Revolution, then in Eastern Europe, Asia, and other regions after WorldWar II.</t>
+          <t>Others link the name to the Myrrha commifera shrub, a plant producing the aromatic resin called myrrh that is indigenous to the MiddleEast and northeastern Africa, which was the city's chief export in antiquity.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>In the 20th century, Communist governments espousing Marxism–Leninism came to power, first in the Soviet Union with the 1917 Russian Revolution, then in Eastern Europe, Asia, and other regions after World War II.</t>
+          <t>Others link the name to the Myrrha commifera shrub, a plant producing the aromatic resin called myrrh that is indigenous to the Middle East and northeastern Africa, which was the city's chief export in antiquity.</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>As such, in South Korea, the primeminister is equivalent to that of a vice president which is the second in-command and assumes the presidency in the absence of the president.</t>
+          <t>The National Diet (parliament) nominates the primeminister from among its members (typically from among the members of the House of Representatives).</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>As such, in South Korea, the prime minister is equivalent to that of a vice president which is the second in-command and assumes the presidency in the absence of the president.</t>
+          <t>The National Diet (parliament) nominates the prime minister from among its members (typically from among the members of the House of Representatives).</t>
         </is>
       </c>
     </row>
@@ -1303,12 +1303,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>However, if the primeminister is resigning because he has lost the confidence of the House of Commons, the viceroy is not obligated to follow that advice.</t>
+          <t>The office of primeminister is not established by any statute or constitutional document, but exists only by long-established convention, whereby the monarch appoints as prime minister the person most likely to command the confidence of the House of Commons.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>However, if the prime minister is resigning because he has lost the confidence of the House of Commons, the viceroy is not obligated to follow that advice.</t>
+          <t>The office of prime minister is not established by any statute or constitutional document, but exists only by long-established convention, whereby the monarch appoints as prime minister the person most likely to command the confidence of the House of Commons.</t>
         </is>
       </c>
     </row>
@@ -1320,22 +1320,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mexico–UnitedStates</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mexico–United States</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>During his first presidency, Trump imposed a travel ban on seven Muslim-majority countries, expanded the Mexico–UnitedStates border wall, and enforced a family separation policy on the border.</t>
+          <t>A primeminister who has given intention to resign may advise the governor general on whom to appoint as the next prime minister.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>During his first presidency, Trump imposed a travel ban on seven Muslim-majority countries, expanded the Mexico–United States border wall, and enforced a family separation policy on the border.</t>
+          <t>A prime minister who has given intention to resign may advise the governor general on whom to appoint as the next prime minister.</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Early conceptions of the office of primeminister evolved as the primus inter pares ("first among equals"); however that does not differentiate on status and responsibility upon whoever is holding office.</t>
+          <t>The longest-serving primeminister to date is Shinzo Abe, who served in two non-consecutive terms for 8 years, 267 days: from 26 September 2006 until 26 September 2007, and from 26 December 2012 until 16 September 2020.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Early conceptions of the office of prime minister evolved as the primus inter pares ("first among equals"); however that does not differentiate on status and responsibility upon whoever is holding office.</t>
+          <t>The longest-serving prime minister to date is Shinzo Abe, who served in two non-consecutive terms for 8 years, 267 days: from 26 September 2006 until 26 September 2007, and from 26 December 2012 until 16 September 2020.</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MiddleEast,</t>
+          <t>UnitedStates's</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Middle East,</t>
+          <t>United States's</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Major areas of conflict included Europe and the MiddleEast, as well as parts of Africa and the Asia-Pacific.</t>
+          <t>The Eisenhower Administration decided to split the UnitedStates's military and civil spaceflight programs, which were organized together under the Department of Defense's Advanced Research Projects Agency.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Major areas of conflict included Europe and the Middle East, as well as parts of Africa and the Asia-Pacific.</t>
+          <t>The Eisenhower Administration decided to split the United States's military and civil spaceflight programs, which were organized together under the Department of Defense's Advanced Research Projects Agency.</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The primeminister lives and works at the Naikaku Sōri Daijin Kantei (Prime Minister's Official Residence) in Nagatachō, Chiyoda, Tokyo, close to the National Diet Building.</t>
+          <t>WorldWar I, or the First World War (28 July 1914 – 11 November 1918), also known as the Great War, was a global conflict between two coalitions: the Allies (or Entente) and the Central Powers.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The prime minister lives and works at the Naikaku Sōri Daijin Kantei (Prime Minister's Official Residence) in Nagatachō, Chiyoda, Tokyo, close to the National Diet Building.</t>
+          <t>World War I, or the First World War (28 July 1914 – 11 November 1918), also known as the Great War, was a global conflict between two coalitions: the Allies (or Entente) and the Central Powers.</t>
         </is>
       </c>
     </row>
@@ -1428,22 +1428,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
+          <t>primeminister,</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>prime minister,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The Turkish Army sent 14,936 troops to fight in the Korean War alongside SouthKorea and NATO.</t>
+          <t>In fact, the primeminister, along with the other ministers in Cabinet, is appointed by the governor general on behalf of the monarch.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The Turkish Army sent 14,936 troops to fight in the Korean War alongside South Korea and NATO.</t>
+          <t>In fact, the prime minister, along with the other ministers in Cabinet, is appointed by the governor general on behalf of the monarch.</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>primeminister,</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>prime minister,</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>However, constitutional amendments approved in the 2017 constitutional referendum abolished the office of primeminister, and vested the presidency with full executive powers, effective upon the 2018 general election.</t>
+          <t>The civil rights movement was a social movement in the UnitedStates from 1954 to 1968 which aimed to abolish legalized racial segregation, discrimination, and disenfranchisement in the country, which most commonly affected African Americans.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>However, constitutional amendments approved in the 2017 constitutional referendum abolished the office of prime minister, and vested the presidency with full executive powers, effective upon the 2018 general election.</t>
+          <t>The civil rights movement was a social movement in the United States from 1954 to 1968 which aimed to abolish legalized racial segregation, discrimination, and disenfranchisement in the country, which most commonly affected African Americans.</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MiddleEast</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>With its capital at Constantinople and control over a significant portion of the Mediterranean Basin, the Ottoman Empire was at the centre of interactions between the MiddleEast and Europe for six centuries.</t>
+          <t>As the leader of the world's sixth largest economy, the primeminister holds significant domestic and international leadership, being the leader of a prominent member state of NATO, the G7 and G20.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>With its capital at Constantinople and control over a significant portion of the Mediterranean Basin, the Ottoman Empire was at the centre of interactions between the Middle East and Europe for six centuries.</t>
+          <t>As the leader of the world's sixth largest economy, the prime minister holds significant domestic and international leadership, being the leader of a prominent member state of NATO, the G7 and G20.</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Donald John Trump (born June 14, 1946) is an American politician, media personality, and businessman who is the 47th president of the UnitedStates.</t>
+          <t>The CUP joined WorldWar I on the side of the Central Powers.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Donald John Trump (born June 14, 1946) is an American politician, media personality, and businessman who is the 47th president of the United States.</t>
+          <t>The CUP joined World War I on the side of the Central Powers.</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>primeministers</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>prime ministers</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Modern primeministers hold office by virtue of their ability to command the confidence of the House of Commons, so they are invariably members of Parliament.</t>
+          <t>Today, the primeminister is often, but not always, a member of the legislature or its lower house, and is expected with other ministers to ensure the passage of bills through the legislature.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Modern prime ministers hold office by virtue of their ability to command the confidence of the House of Commons, so they are invariably members of Parliament.</t>
+          <t>Today, the prime minister is often, but not always, a member of the legislature or its lower house, and is expected with other ministers to ensure the passage of bills through the legislature.</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Abraham Lincoln (February 12, 1809 – April 15, 1865) was the 16th president of the UnitedStates, serving from 1861 until his assassination in 1865.</t>
+          <t>In the resulting Treaty of Paris in 1783, the British acknowledged the sovereign independence of the UnitedStates.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Abraham Lincoln (February 12, 1809 – April 15, 1865) was the 16th president of the United States, serving from 1861 until his assassination in 1865.</t>
+          <t>In the resulting Treaty of Paris in 1783, the British acknowledged the sovereign independence of the United States.</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NewYork,</t>
+          <t>primeministerial</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>New York,</t>
+          <t>prime ministerial</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Born into the prominent Delano and Roosevelt families in Hyde Park, NewYork, Roosevelt graduated from Harvard University.</t>
+          <t>During the premierships of Margaret Thatcher and Tony Blair, primeministerial power expanded substantially, and their leaderships in the office were described as "presidential" due to their personal wielding of power and tight control over the cabinet.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Born into the prominent Delano and Roosevelt families in Hyde Park, New York, Roosevelt graduated from Harvard University.</t>
+          <t>During the premierships of Margaret Thatcher and Tony Blair, prime ministerial power expanded substantially, and their leaderships in the office were described as "presidential" due to their personal wielding of power and tight control over the cabinet.</t>
         </is>
       </c>
     </row>
@@ -1617,22 +1617,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>MiddleEast.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>Middle East.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The primeminister is supported by the Prime Minister's Office and heads the Privy Council Office.</t>
+          <t>While the philosophical terminology developed in classical Greece and Rome, as already noted by Aristotle there was already a long history of city states with a wide variety of constitutions, not only in Greece but also in the MiddleEast.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The prime minister is supported by the Prime Minister's Office and heads the Privy Council Office.</t>
+          <t>While the philosophical terminology developed in classical Greece and Rome, as already noted by Aristotle there was already a long history of city states with a wide variety of constitutions, not only in Greece but also in the Middle East.</t>
         </is>
       </c>
     </row>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>MiddleEast</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>In the 2010 UnitedStates National Space Policy, the ISS was given additional roles of serving commercial, diplomatic, and educational purposes.</t>
+          <t>With its capital at Constantinople and control over a significant portion of the Mediterranean Basin, the Ottoman Empire was at the centre of interactions between the MiddleEast and Europe for six centuries.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>In the 2010 United States National Space Policy, the ISS was given additional roles of serving commercial, diplomatic, and educational purposes.</t>
+          <t>With its capital at Constantinople and control over a significant portion of the Mediterranean Basin, the Ottoman Empire was at the centre of interactions between the Middle East and Europe for six centuries.</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>WorldWar II is generally considered to have begun on 1 September 1939, when Nazi Germany, under Adolf Hitler, invaded Poland, after which the United Kingdom and France declared war on Germany.</t>
+          <t>In many systems, the primeminister selects and may dismiss other members of the cabinet, and allocates posts to members within the government.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>World War II is generally considered to have begun on 1 September 1939, when Nazi Germany, under Adolf Hitler, invaded Poland, after which the United Kingdom and France declared war on Germany.</t>
+          <t>In many systems, the prime minister selects and may dismiss other members of the cabinet, and allocates posts to members within the government.</t>
         </is>
       </c>
     </row>
@@ -1698,22 +1698,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>primeminister's</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>prime minister's</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The primeminister's official residence and office is 10 Downing Street in London.</t>
+          <t>The Supreme Court of the UnitedStates (SCOTUS) is the highest court in the federal judiciary of the United States.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>The prime minister's official residence and office is 10 Downing Street in London.</t>
+          <t>The Supreme Court of the United States (SCOTUS) is the highest court in the federal judiciary of the United States.</t>
         </is>
       </c>
     </row>
@@ -1725,22 +1725,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>primeminister,</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>prime minister,</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>In May 1940, he became primeminister, succeeding Neville Chamberlain.</t>
+          <t>Founded in 1636, and named in 1639 for its first benefactor, the Puritan clergyman John Harvard, it is the oldest institution of higher learning in the UnitedStates.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>In May 1940, he became prime minister, succeeding Neville Chamberlain.</t>
+          <t>Founded in 1636, and named in 1639 for its first benefactor, the Puritan clergyman John Harvard, it is the oldest institution of higher learning in the United States.</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NewYork</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>However, partly through the encouragement of his wife Eleanor, he returned to public office upon being elected governor of NewYork in 1928.</t>
+          <t>In July 1776, the Thirteen Colonies, represented at the Second Continental Congress in Philadelphia, unanimously adopted the UnitedStates Declaration of Independence in which the colonies declared themselves to be independent sovereign states and no longer under British rule.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>However, partly through the encouragement of his wife Eleanor, he returned to public office upon being elected governor of New York in 1928.</t>
+          <t>In July 1776, the Thirteen Colonies, represented at the Second Continental Congress in Philadelphia, unanimously adopted the United States Declaration of Independence in which the colonies declared themselves to be independent sovereign states and no longer under British rule.</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1789,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Today, the primeminister is often, but not always, a member of the legislature or its lower house, and is expected with other ministers to ensure the passage of bills through the legislature.</t>
+          <t>Keir Starmer succeeded Rishi Sunak as primeminister on 5 July 2024, following the 2024 general election.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Today, the prime minister is often, but not always, a member of the legislature or its lower house, and is expected with other ministers to ensure the passage of bills through the legislature.</t>
+          <t>Keir Starmer succeeded Rishi Sunak as prime minister on 5 July 2024, following the 2024 general election.</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>The primeminister also selects individuals for appointment as governor general, provincial lieutenant governors, territorial commissioners, as well as to the Senate of Canada, Supreme Court of Canada, other federal courts, and senior members of the military and public service.</t>
+          <t>WorldWar II is generally considered to have begun on 1 September 1939, when Nazi Germany, under Adolf Hitler, invaded Poland, after which the United Kingdom and France declared war on Germany.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The prime minister also selects individuals for appointment as governor general, provincial lieutenant governors, territorial commissioners, as well as to the Senate of Canada, Supreme Court of Canada, other federal courts, and senior members of the military and public service.</t>
+          <t>World War II is generally considered to have begun on 1 September 1939, when Nazi Germany, under Adolf Hitler, invaded Poland, after which the United Kingdom and France declared war on Germany.</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Conant led the university through the Great Depression and WorldWar II, and liberalized admissions after the war.</t>
+          <t>The UnitedStates of America (USA), also known as the United States (U.S.) or America, is a country primarily located in North America.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Conant led the university through the Great Depression and World War II, and liberalized admissions after the war.</t>
+          <t>The United States of America (USA), also known as the United States (U.S.) or America, is a country primarily located in North America.</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>MiddleEast—once</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Middle East—once</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>In April 1917, the UnitedStates joined the Allies after Germany resumed unrestricted submarine warfare against Atlantic shipping.</t>
+          <t>In the 7th century, North Africa and the MiddleEast—once part of the Byzantine Empire—came under the rule of the Umayyad Caliphate, an Islamic empire, after conquest by Muhammad's successors.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>In April 1917, the United States joined the Allies after Germany resumed unrestricted submarine warfare against Atlantic shipping.</t>
+          <t>In the 7th century, North Africa and the Middle East—once part of the Byzantine Empire—came under the rule of the Umayyad Caliphate, an Islamic empire, after conquest by Muhammad's successors.</t>
         </is>
       </c>
     </row>
@@ -1914,22 +1914,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>February 11, 1731] – December 14, 1799) was a Founding Father and the first president of the UnitedStates, serving from 1789 to 1797.</t>
+          <t>Despite Dayton, Ohio being the birthplace of aviation, by 1914 the UnitedStates recognized that it was far behind Europe in aviation capability.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>February 11, 1731] – December 14, 1799) was a Founding Father and the first president of the United States, serving from 1789 to 1797.</t>
+          <t>Despite Dayton, Ohio being the birthplace of aviation, by 1914 the United States recognized that it was far behind Europe in aviation capability.</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The bank is headquartered in Washington, D.C., in the UnitedStates.</t>
+          <t>The Second WorldWar and its aftermath provoked greater interest and scholarship in international relations, particularly in North America and Western Europe, where it was shaped considerably by the geostrategic concerns of the Cold War.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The bank is headquartered in Washington, D.C., in the United States.</t>
+          <t>The Second World War and its aftermath provoked greater interest and scholarship in international relations, particularly in North America and Western Europe, where it was shaped considerably by the geostrategic concerns of the Cold War.</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Franklin Delano Roosevelt (January 30, 1882 – April 12, 1945), also known as FDR, was the 32nd president of the UnitedStates, serving from 1933 until his death in 1945.</t>
+          <t>The Turkish Nationalist Movement carried out massacres and deportations to eliminate native Christian populations—a continuation of the Armenian genocide and other ethnic cleansing during WorldWar I.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Franklin Delano Roosevelt (January 30, 1882 – April 12, 1945), also known as FDR, was the 32nd president of the United States, serving from 1933 until his death in 1945.</t>
+          <t>The Turkish Nationalist Movement carried out massacres and deportations to eliminate native Christian populations—a continuation of the Armenian genocide and other ethnic cleansing during World War I.</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>NewYork</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The shortest-serving primeminister to date is Prince Naruhiko Higashikuni, who served for fifty-four days: from 17 August until 9 October 1945.</t>
+          <t>The company has been public since 1940 and trades on the NewYork Stock Exchange (NYSE) and has been a component of the Dow Jones Industrial Average since 1991.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>The shortest-serving prime minister to date is Prince Naruhiko Higashikuni, who served for fifty-four days: from 17 August until 9 October 1945.</t>
+          <t>The company has been public since 1940 and trades on the New York Stock Exchange (NYSE) and has been a component of the Dow Jones Industrial Average since 1991.</t>
         </is>
       </c>
     </row>
@@ -2022,22 +2022,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>HumanRights</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>Human Rights</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>As the leader of the world's sixth largest economy, the primeminister holds significant domestic and international leadership, being the leader of a prominent member state of NATO, the G7 and G20.</t>
+          <t>In the Castilian colonization of America, it is often stated, measures were applied in which the germs of the idea of HumanRights are present, debated in the well-known Valladolid Debate that took place in 1550 and 1551.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>As the leader of the world's sixth largest economy, the prime minister holds significant domestic and international leadership, being the leader of a prominent member state of NATO, the G7 and G20.</t>
+          <t>In the Castilian colonization of America, it is often stated, measures were applied in which the germs of the idea of Human Rights are present, debated in the well-known Valladolid Debate that took place in 1550 and 1551.</t>
         </is>
       </c>
     </row>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>WorldWar I, or the First World War (28 July 1914 – 11 November 1918), also known as the Great War, was a global conflict between two coalitions: the Allies (or Entente) and the Central Powers.</t>
+          <t>Mark Carney is the current primeminister of Canada, taking office on March 14, 2025.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>World War I, or the First World War (28 July 1914 – 11 November 1918), also known as the Great War, was a global conflict between two coalitions: the Allies (or Entente) and the Central Powers.</t>
+          <t>Mark Carney is the current prime minister of Canada, taking office on March 14, 2025.</t>
         </is>
       </c>
     </row>
@@ -2076,22 +2076,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NorthKorea,</t>
+          <t>MiddleEastern</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>North Korea,</t>
+          <t>Middle Eastern</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Except NorthKorea, these have allowed more economic competition while maintaining one-party rule.</t>
+          <t>While the traditional MiddleEastern views on interest were the result of the urbanized, economically developed character of the societies that produced them, the new Jewish prohibition on interest showed a pastoral, tribal influence.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Except North Korea, these have allowed more economic competition while maintaining one-party rule.</t>
+          <t>While the traditional Middle Eastern views on interest were the result of the urbanized, economically developed character of the societies that produced them, the new Jewish prohibition on interest showed a pastoral, tribal influence.</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The Turkish Nationalist Movement carried out massacres and deportations to eliminate native Christian populations—a continuation of the Armenian genocide and other ethnic cleansing during WorldWar I.</t>
+          <t>The bank is headquartered in Washington, D.C., in the UnitedStates.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The Turkish Nationalist Movement carried out massacres and deportations to eliminate native Christian populations—a continuation of the Armenian genocide and other ethnic cleansing during World War I.</t>
+          <t>The bank is headquartered in Washington, D.C., in the United States.</t>
         </is>
       </c>
     </row>
@@ -2130,22 +2130,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Headquartered in Washington, D.C., NASA operates ten field centers across the UnitedStates and is organized into mission directorates for Science, Space Operations, Exploration Systems Development, Space Technology, Aeronautics Research, and Mission Support.</t>
+          <t>At the outbreak of the Second WorldWar he was re-appointed First Lord of the Admiralty.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Headquartered in Washington, D.C., NASA operates ten field centers across the United States and is organized into mission directorates for Science, Space Operations, Exploration Systems Development, Space Technology, Aeronautics Research, and Mission Support.</t>
+          <t>At the outbreak of the Second World War he was re-appointed First Lord of the Admiralty.</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2157,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MiddleEast</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Others link the name to the Myrrha commifera shrub, a plant producing the aromatic resin called myrrh that is indigenous to the MiddleEast and northeastern Africa, which was the city's chief export in antiquity.</t>
+          <t>By 2022, "Netflix Original" productions accounted for half of its library in the UnitedStates and the namesake company had ventured into other categories, such as video game publishing of mobile games through its flagship service.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Others link the name to the Myrrha commifera shrub, a plant producing the aromatic resin called myrrh that is indigenous to the Middle East and northeastern Africa, which was the city's chief export in antiquity.</t>
+          <t>By 2022, "Netflix Original" productions accounted for half of its library in the United States and the namesake company had ventured into other categories, such as video game publishing of mobile games through its flagship service.</t>
         </is>
       </c>
     </row>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeministers</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime ministers</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>WorldWar II is the deadliest conflict in history, causing the death of over 60 million people.</t>
+          <t>Canadian primeministers are appointed to the Privy Council and styled as the Right Honourable (French: le très honorable), a privilege maintained for life.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>World War II is the deadliest conflict in history, causing the death of over 60 million people.</t>
+          <t>Canadian prime ministers are appointed to the Privy Council and styled as the Right Honourable (French: le très honorable), a privilege maintained for life.</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A primeminister is not the head of state, but rather the head of government, serving as the chief of the executive under either a monarch or a president in a republican form of government.</t>
+          <t>WorldWar II is the deadliest conflict in history, causing the death of over 60 million people.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A prime minister is not the head of state, but rather the head of government, serving as the chief of the executive under either a monarch or a president in a republican form of government.</t>
+          <t>World War II is the deadliest conflict in history, causing the death of over 60 million people.</t>
         </is>
       </c>
     </row>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The position of primeminister is not outlined in any Canadian constitutional document and is mentioned only in a few sections of the Constitution Act, 1982, and in the Letters Patent, 1947 issued by King George VI.</t>
+          <t>The shortest-serving primeminister to date is Prince Naruhiko Higashikuni, who served for fifty-four days: from 17 August until 9 October 1945.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>The position of prime minister is not outlined in any Canadian constitutional document and is mentioned only in a few sections of the Constitution Act, 1982, and in the Letters Patent, 1947 issued by King George VI.</t>
+          <t>The shortest-serving prime minister to date is Prince Naruhiko Higashikuni, who served for fifty-four days: from 17 August until 9 October 1945.</t>
         </is>
       </c>
     </row>
@@ -2275,12 +2275,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>While initially committing to democratic governance, Vargas assumed dictatorial powers following a self-coup in 1937, marking the beginning of the Estado Novo, in which he oversaw Brazil's involvement in WorldWar II.</t>
+          <t>Under the control of the Three Pashas, the Ottoman Empire entered WorldWar I in 1914, during which the Ottoman government committed genocides against its Armenian, Greek, and Assyrian subjects.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>While initially committing to democratic governance, Vargas assumed dictatorial powers following a self-coup in 1937, marking the beginning of the Estado Novo, in which he oversaw Brazil's involvement in World War II.</t>
+          <t>Under the control of the Three Pashas, the Ottoman Empire entered World War I in 1914, during which the Ottoman government committed genocides against its Armenian, Greek, and Assyrian subjects.</t>
         </is>
       </c>
     </row>
@@ -2292,22 +2292,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>primeministers—John</t>
+          <t>SouthKorea</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>prime ministers—John</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Two former primeministers—John Joseph Caldwell Abbott and Mackenzie Bowell—served in the 1890s while members of the Senate.</t>
+          <t>The legitimacy of the Provisional Government has been recognized and succeeded by SouthKorea in the latter's original Constitution of 1948 and the current Constitution of 1987.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Two former prime ministers—John Joseph Caldwell Abbott and Mackenzie Bowell—served in the 1890s while members of the Senate.</t>
+          <t>The legitimacy of the Provisional Government has been recognized and succeeded by South Korea in the latter's original Constitution of 1948 and the current Constitution of 1987.</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>SouthKorea</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The American Revolution was a political movement in the Thirteen Colonies of Great Britain and the UnitedStates which the colonies founded.</t>
+          <t>The Turkish Army sent 14,936 troops to fight in the Korean War alongside SouthKorea and NATO.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>The American Revolution was a political movement in the Thirteen Colonies of Great Britain and the United States which the colonies founded.</t>
+          <t>The Turkish Army sent 14,936 troops to fight in the Korean War alongside South Korea and NATO.</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>An authoritarian military dictatorship emerged in 1964 with support from the UnitedStates and ruled until 1985, after which civilian governance resumed.</t>
+          <t>As of 2025, Netflix is the 18th most-visited website in the world, with 21.18% of its traffic coming from the UnitedStates, followed by the United Kingdom at 6.01%, Canada at 4.94%, and Brazil at 4.24%.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>An authoritarian military dictatorship emerged in 1964 with support from the United States and ruled until 1985, after which civilian governance resumed.</t>
+          <t>As of 2025, Netflix is the 18th most-visited website in the world, with 21.18% of its traffic coming from the United States, followed by the United Kingdom at 6.01%, Canada at 4.94%, and Brazil at 4.24%.</t>
         </is>
       </c>
     </row>
@@ -2373,22 +2373,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NewYork</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Washington and his army achieved an early victory at the Siege of Boston in March 1776 but were forced to retreat from NewYork City in November.</t>
+          <t>The First WorldWar brought about the fall of the Ottoman Empire and the subsequent partitioning of the Ottoman Empire by the victorious Allies.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Washington and his army achieved an early victory at the Siege of Boston in March 1776 but were forced to retreat from New York City in November.</t>
+          <t>The First World War brought about the fall of the Ottoman Empire and the subsequent partitioning of the Ottoman Empire by the victorious Allies.</t>
         </is>
       </c>
     </row>
@@ -2400,22 +2400,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>EuropeanUnion</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>European Union</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The court consists of nine justices—the chief justice of the UnitedStates and eight associate justices—who meet at the Supreme Court Building in Washington, D.C.</t>
+          <t>In the following decades, Turkey benefited from American political, economic, and diplomatic support—particularly on critical issues such as its longstanding bid for EuropeanUnion membership.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The court consists of nine justices—the chief justice of the United States and eight associate justices—who meet at the Supreme Court Building in Washington, D.C.</t>
+          <t>In the following decades, Turkey benefited from American political, economic, and diplomatic support—particularly on critical issues such as its longstanding bid for European Union membership.</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>WorldWar II or the Second World War (1 September 1939 – 2 September 1945) was a global conflict between two coalitions: the Allies and the Axis powers.</t>
+          <t>By 1900, the country had established itself as a great power, a status solidified after its involvement in WorldWar I.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>World War II or the Second World War (1 September 1939 – 2 September 1945) was a global conflict between two coalitions: the Allies and the Axis powers.</t>
+          <t>By 1900, the country had established itself as a great power, a status solidified after its involvement in World War I.</t>
         </is>
       </c>
     </row>
@@ -2454,22 +2454,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>primeminister,</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>prime minister,</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A primeminister who has given intention to resign may advise the governor general on whom to appoint as the next prime minister.</t>
+          <t>As of 2025, 58 people (55 men and 3 women) have served as primeminister, the first of whom was Robert Walpole taking office on 3 April 1721.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A prime minister who has given intention to resign may advise the governor general on whom to appoint as the next prime minister.</t>
+          <t>As of 2025, 58 people (55 men and 3 women) have served as prime minister, the first of whom was Robert Walpole taking office on 3 April 1721.</t>
         </is>
       </c>
     </row>
@@ -2481,22 +2481,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>In December 1941, Japan attacked American and British territories in Asia and the Pacific, including Pearl Harbor in Hawaii, leading the UnitedStates to enter the war against the Axis.</t>
+          <t>As such, in South Korea, the primeminister is equivalent to that of a vice president which is the second in-command and assumes the presidency in the absence of the president.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>In December 1941, Japan attacked American and British territories in Asia and the Pacific, including Pearl Harbor in Hawaii, leading the United States to enter the war against the Axis.</t>
+          <t>As such, in South Korea, the prime minister is equivalent to that of a vice president which is the second in-command and assumes the presidency in the absence of the president.</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The primeminister is nominated by both houses of the Diet, before the conduct of any other business.</t>
+          <t>These changes were the outcome of the associated American Revolutionary War and the consequential sovereign independence of the former colonies as the UnitedStates.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>The prime minister is nominated by both houses of the Diet, before the conduct of any other business.</t>
+          <t>These changes were the outcome of the associated American Revolutionary War and the consequential sovereign independence of the former colonies as the United States.</t>
         </is>
       </c>
     </row>
@@ -2535,22 +2535,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Washington then served as president of the Constitutional Convention in 1787, which drafted the current Constitution of the UnitedStates.</t>
+          <t>In December 1941, Japan attacked American and British territories in Asia and the Pacific, including Pearl Harbor in Hawaii, leading the UnitedStates to enter the war against the Axis.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Washington then served as president of the Constitutional Convention in 1787, which drafted the current Constitution of the United States.</t>
+          <t>In December 1941, Japan attacked American and British territories in Asia and the Pacific, including Pearl Harbor in Hawaii, leading the United States to enter the war against the Axis.</t>
         </is>
       </c>
     </row>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>By 1900, the country had established itself as a great power, a status solidified after its involvement in WorldWar I.</t>
+          <t>A primeminister is not the head of state, but rather the head of government, serving as the chief of the executive under either a monarch or a president in a republican form of government.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>By 1900, the country had established itself as a great power, a status solidified after its involvement in World War I.</t>
+          <t>A prime minister is not the head of state, but rather the head of government, serving as the chief of the executive under either a monarch or a president in a republican form of government.</t>
         </is>
       </c>
     </row>
@@ -2589,22 +2589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NewYork,</t>
+          <t>UnitedStates'</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>New York,</t>
+          <t>United States'</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>The term global city was subsequently popularized by sociologist Saskia Sassen in her work The Global City: NewYork, London, Tokyo (1991).</t>
+          <t>The ISS program combines two previously planned crewed Earth-orbiting stations: the UnitedStates' Space Station Freedom and the Soviet Union's Mir-2.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>The term global city was subsequently popularized by sociologist Saskia Sassen in her work The Global City: New York, London, Tokyo (1991).</t>
+          <t>The ISS program combines two previously planned crewed Earth-orbiting stations: the United States' Space Station Freedom and the Soviet Union's Mir-2.</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Under some presidential systems, such as South Korea and Peru, the primeminister is the leader or the most senior member of the cabinet, but not the head of government.</t>
+          <t>It is a part of Big Tech along with five other tech companies in the UnitedStates, Alphabet (Google), Amazon, Apple, Meta (Facebook), and Nvidia, which are also the largest companies in the world by market capitalization.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Under some presidential systems, such as South Korea and Peru, the prime minister is the leader or the most senior member of the cabinet, but not the head of government.</t>
+          <t>It is a part of Big Tech along with five other tech companies in the United States, Alphabet (Google), Amazon, Apple, Meta (Facebook), and Nvidia, which are also the largest companies in the world by market capitalization.</t>
         </is>
       </c>
     </row>
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>primeministers</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>prime ministers</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Canadian primeministers are appointed to the Privy Council and styled as the Right Honourable (French: le très honorable), a privilege maintained for life.</t>
+          <t>The longest-serving primeminister was also Walpole, who served over 20 years, and the shortest-serving was Liz Truss, who served seven weeks.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Canadian prime ministers are appointed to the Privy Council and styled as the Right Honourable (French: le très honorable), a privilege maintained for life.</t>
+          <t>The longest-serving prime minister was also Walpole, who served over 20 years, and the shortest-serving was Liz Truss, who served seven weeks.</t>
         </is>
       </c>
     </row>
@@ -2670,22 +2670,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NewYork,</t>
+          <t>primeminister.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>New York,</t>
+          <t>prime minister.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Meanwhile, the Ethnological Society of NewYork, now the American Ethnological Society, was founded on its model in 1842, as well as the Ethnological Society of London in 1843, a break-away group of the Aborigines' Protection Society.</t>
+          <t>However, in rare circumstances individuals who are not sitting members of the House of Commons have been appointed to the position of primeminister.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Meanwhile, the Ethnological Society of New York, now the American Ethnological Society, was founded on its model in 1842, as well as the Ethnological Society of London in 1843, a break-away group of the Aborigines' Protection Society.</t>
+          <t>However, in rare circumstances individuals who are not sitting members of the House of Commons have been appointed to the position of prime minister.</t>
         </is>
       </c>
     </row>
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>"primeminister",</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>"prime minister",</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>In July 1776, the Thirteen Colonies, represented at the Second Continental Congress in Philadelphia, unanimously adopted the UnitedStates Declaration of Independence in which the colonies declared themselves to be independent sovereign states and no longer under British rule.</t>
+          <t>The names given could be "primeminister", although other terms were also used such as "chief minister", "grand chancellor", "chancellor", "grand vizier", "counselor", and others.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>In July 1776, the Thirteen Colonies, represented at the Second Continental Congress in Philadelphia, unanimously adopted the United States Declaration of Independence in which the colonies declared themselves to be independent sovereign states and no longer under British rule.</t>
+          <t>The names given could be "prime minister", although other terms were also used such as "chief minister", "grand chancellor", "chancellor", "grand vizier", "counselor", and others.</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>NorthKorea,</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>North Korea,</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Keir Starmer succeeded Rishi Sunak as primeminister on 5 July 2024, following the 2024 general election.</t>
+          <t>Only a few nominally Communist governments remain, such as China, Cuba, Laos, NorthKorea, and Vietnam.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Keir Starmer succeeded Rishi Sunak as prime minister on 5 July 2024, following the 2024 general election.</t>
+          <t>Only a few nominally Communist governments remain, such as China, Cuba, Laos, North Korea, and Vietnam.</t>
         </is>
       </c>
     </row>
@@ -2751,22 +2751,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>SouthKorea</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mark Carney is the current primeminister of Canada, taking office on March 14, 2025.</t>
+          <t>The Constitution of SouthKorea and the amended Presidential Election Act of 1987 provide for election of the president by direct, secret ballot, ending sixteen years of indirect presidential elections under the preceding two authoritarian governments.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Mark Carney is the current prime minister of Canada, taking office on March 14, 2025.</t>
+          <t>The Constitution of South Korea and the amended Presidential Election Act of 1987 provide for election of the president by direct, secret ballot, ending sixteen years of indirect presidential elections under the preceding two authoritarian governments.</t>
         </is>
       </c>
     </row>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Following WorldWar II, Emperor Haile Selassie renamed the town after Biblical Nazareth, and this name was used for the remainder of the twentieth century.</t>
+          <t>According to the UnitedStates government, the other defining aspect of Turkey's foreign policy has been the country's long-standing strategic alliance with the United States.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Following World War II, Emperor Haile Selassie renamed the town after Biblical Nazareth, and this name was used for the remainder of the twentieth century.</t>
+          <t>According to the United States government, the other defining aspect of Turkey's foreign policy has been the country's long-standing strategic alliance with the United States.</t>
         </is>
       </c>
     </row>
@@ -2805,22 +2805,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>post-WorldWar</t>
+          <t>NewYork,</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>post-World War</t>
+          <t>New York,</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The conflict was between the Turkish Nationalists against Allied and separatist forces over the application of Wilsonian principles, especially self-determination, in post-WorldWar I Anatolia and eastern Thrace.</t>
+          <t>Born into the prominent Delano and Roosevelt families in Hyde Park, NewYork, Roosevelt graduated from Harvard University.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>The conflict was between the Turkish Nationalists against Allied and separatist forces over the application of Wilsonian principles, especially self-determination, in post-World War I Anatolia and eastern Thrace.</t>
+          <t>Born into the prominent Delano and Roosevelt families in Hyde Park, New York, Roosevelt graduated from Harvard University.</t>
         </is>
       </c>
     </row>
@@ -2832,22 +2832,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>He won the Battle of Marengo in 1800, which secured France's victory in the War of the Second Coalition, and in 1803, he sold the territory of Louisiana to the UnitedStates.</t>
+          <t>In April 1917, the UnitedStates joined the Allies after Germany resumed unrestricted submarine warfare against Atlantic shipping.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>He won the Battle of Marengo in 1800, which secured France's victory in the War of the Second Coalition, and in 1803, he sold the territory of Louisiana to the United States.</t>
+          <t>In April 1917, the United States joined the Allies after Germany resumed unrestricted submarine warfare against Atlantic shipping.</t>
         </is>
       </c>
     </row>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
+          <t>MiddleEast,</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Middle East,</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The Constitution of SouthKorea and the amended Presidential Election Act of 1987 provide for election of the president by direct, secret ballot, ending sixteen years of indirect presidential elections under the preceding two authoritarian governments.</t>
+          <t>It also launched international editions in Europe, Africa, the MiddleEast, Asia and Latin America.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The Constitution of South Korea and the amended Presidential Election Act of 1987 provide for election of the president by direct, secret ballot, ending sixteen years of indirect presidential elections under the preceding two authoritarian governments.</t>
+          <t>It also launched international editions in Europe, Africa, the Middle East, Asia and Latin America.</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Early elections in countries such as the United Kingdom and the UnitedStates were dominated by landed or ruling class males.</t>
+          <t>The primeminister advises the sovereign on the exercise of much of the royal prerogative, chairs the Cabinet, and selects its ministers.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Early elections in countries such as the United Kingdom and the United States were dominated by landed or ruling class males.</t>
+          <t>The prime minister advises the sovereign on the exercise of much of the royal prerogative, chairs the Cabinet, and selects its ministers.</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>primeminister's</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>prime minister's</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>The president directs the executive branch of the federal government and is the commander-in-chief of the UnitedStates Armed Forces.</t>
+          <t>In Japanese, due to the special nature of the work of the head of government, the primeminister's titles vary depending on context, sometimes demonstrating their role.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The president directs the executive branch of the federal government and is the commander-in-chief of the United States Armed Forces.</t>
+          <t>In Japanese, due to the special nature of the work of the head of government, the prime minister's titles vary depending on context, sometimes demonstrating their role.</t>
         </is>
       </c>
     </row>
@@ -2940,22 +2940,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>In 2023, it was ranked 87th on the 2023 Forbes Global 2000, and 48th on the Fortune 500 list of biggest companies in the UnitedStates by revenue.</t>
+          <t>During the same period, Japan suffered major setbacks, including the crippling of its navy by the UnitedStates, the loss of key Western Pacific islands, and defeats in South-Central China and Burma.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>In 2023, it was ranked 87th on the 2023 Forbes Global 2000, and 48th on the Fortune 500 list of biggest companies in the United States by revenue.</t>
+          <t>During the same period, Japan suffered major setbacks, including the crippling of its navy by the United States, the loss of key Western Pacific islands, and defeats in South-Central China and Burma.</t>
         </is>
       </c>
     </row>
@@ -2967,22 +2967,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>NewYork</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The CUP joined WorldWar I on the side of the Central Powers.</t>
+          <t>He was elected to the NewYork State Senate in 1910, before becoming the assistant secretary of the Navy under President Woodrow Wilson from 1913 to 1920.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The CUP joined World War I on the side of the Central Powers.</t>
+          <t>He was elected to the New York State Senate in 1910, before becoming the assistant secretary of the Navy under President Woodrow Wilson from 1913 to 1920.</t>
         </is>
       </c>
     </row>
@@ -2994,22 +2994,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MiddleEast,</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Middle East,</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>It also launched international editions in Europe, Africa, the MiddleEast, Asia and Latin America.</t>
+          <t>The UnitedStates Congress is a bicameral national legislature composed of the House of Representatives (a lower house based on population) and the Senate (an upper house based on equal representation for each state).</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>It also launched international editions in Europe, Africa, the Middle East, Asia and Latin America.</t>
+          <t>The United States Congress is a bicameral national legislature composed of the House of Representatives (a lower house based on population) and the Senate (an upper house based on equal representation for each state).</t>
         </is>
       </c>
     </row>
@@ -3021,22 +3021,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>In the aftermath of WorldWar I, the victorious Allied Powers occupied and partitioned the Ottoman Empire, which lost its southern territories to the United Kingdom and France.</t>
+          <t>In most systems, the primeminister is the presiding member and chairman of the cabinet.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>In the aftermath of World War I, the victorious Allied Powers occupied and partitioned the Ottoman Empire, which lost its southern territories to the United Kingdom and France.</t>
+          <t>In most systems, the prime minister is the presiding member and chairman of the cabinet.</t>
         </is>
       </c>
     </row>
@@ -3048,22 +3048,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>The primeminister is one of the world's most powerful political leaders in modern times.</t>
+          <t>On the eve of WorldWar II, he endorsed a letter to President Franklin D.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>The prime minister is one of the world's most powerful political leaders in modern times.</t>
+          <t>On the eve of World War II, he endorsed a letter to President Franklin D.</t>
         </is>
       </c>
     </row>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HumanRights</t>
+          <t>primeministers—John</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Human Rights</t>
+          <t>prime ministers—John</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>This threshold has been criticized, but a complaint with the European Court for HumanRights was turned down.</t>
+          <t>Two former primeministers—John Joseph Caldwell Abbott and Mackenzie Bowell—served in the 1890s while members of the Senate.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>This threshold has been criticized, but a complaint with the European Court for Human Rights was turned down.</t>
+          <t>Two former prime ministers—John Joseph Caldwell Abbott and Mackenzie Bowell—served in the 1890s while members of the Senate.</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HumanRights</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Human Rights</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>The Universal Declaration of HumanRights (UDHR) has since inspired numerous international treaties and national laws aimed at promoting and protecting human rights worldwide.</t>
+          <t>Since the inception of the cabinet system, the primeminister is known in Japanese as Naikaku Sōri-Daijin (内閣総理大臣) whenever they are referred to as the head of the Cabinet; however, this title is usually abbreviated to Sōri-Daijin (総理大臣).</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The Universal Declaration of Human Rights (UDHR) has since inspired numerous international treaties and national laws aimed at promoting and protecting human rights worldwide.</t>
+          <t>Since the inception of the cabinet system, the prime minister is known in Japanese as Naikaku Sōri-Daijin (内閣総理大臣) whenever they are referred to as the head of the Cabinet; however, this title is usually abbreviated to Sōri-Daijin (総理大臣).</t>
         </is>
       </c>
     </row>
@@ -3129,22 +3129,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>primeminister.</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>prime minister.</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>However, in rare circumstances individuals who are not sitting members of the House of Commons have been appointed to the position of primeminister.</t>
+          <t>In the UnitedStates, after the principle of "One person, one vote" was established in the early 1960s by the U.S.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>However, in rare circumstances individuals who are not sitting members of the House of Commons have been appointed to the position of prime minister.</t>
+          <t>In the United States, after the principle of "One person, one vote" was established in the early 1960s by the U.S.</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Since the inception of the cabinet system, the primeminister is known in Japanese as Naikaku Sōri-Daijin (内閣総理大臣) whenever they are referred to as the head of the Cabinet; however, this title is usually abbreviated to Sōri-Daijin (総理大臣).</t>
+          <t>Historically, the primeminister was the first amongst equals, until 1868.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Since the inception of the cabinet system, the prime minister is known in Japanese as Naikaku Sōri-Daijin (内閣総理大臣) whenever they are referred to as the head of the Cabinet; however, this title is usually abbreviated to Sōri-Daijin (総理大臣).</t>
+          <t>Historically, the prime minister was the first amongst equals, until 1868.</t>
         </is>
       </c>
     </row>
@@ -3183,22 +3183,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NASA's missions and media operations—such as NASA TV, Astronomy Picture of the Day, and the NASA+ streaming service—have maintained high public visibility and contributed to spaceflight outreach in the UnitedStates and abroad.</t>
+          <t>In the aftermath of WorldWar I, the victorious Allied Powers occupied and partitioned the Ottoman Empire, which lost its southern territories to the United Kingdom and France.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>NASA's missions and media operations—such as NASA TV, Astronomy Picture of the Day, and the NASA+ streaming service—have maintained high public visibility and contributed to spaceflight outreach in the United States and abroad.</t>
+          <t>In the aftermath of World War I, the victorious Allied Powers occupied and partitioned the Ottoman Empire, which lost its southern territories to the United Kingdom and France.</t>
         </is>
       </c>
     </row>
@@ -3210,22 +3210,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>primeministers</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>prime ministers</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>The office of primeminister is not established by any statute or constitutional document, but exists only by long-established convention, whereby the monarch appoints as prime minister the person most likely to command the confidence of the House of Commons.</t>
+          <t>Both, in their roles as government leader in the Senate, succeeded primeministers who had died in office—John A.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>The office of prime minister is not established by any statute or constitutional document, but exists only by long-established convention, whereby the monarch appoints as prime minister the person most likely to command the confidence of the House of Commons.</t>
+          <t>Both, in their roles as government leader in the Senate, succeeded prime ministers who had died in office—John A.</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>MiddleEast.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>Middle East.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>In the UnitedStates, after the principle of "One person, one vote" was established in the early 1960s by the U.S.</t>
+          <t>The unification of Greece by Macedon under Philip II and subsequent conquest of the Achaemenid Empire by Alexander the Great spread Hellenistic civilization across the MiddleEast.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>In the United States, after the principle of "One person, one vote" was established in the early 1960s by the U.S.</t>
+          <t>The unification of Greece by Macedon under Philip II and subsequent conquest of the Achaemenid Empire by Alexander the Great spread Hellenistic civilization across the Middle East.</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3264,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Determined to regain American leadership in aviation, the UnitedStates Congress created the Aviation Section of the US Army Signal Corps in 1914 and established NACA in 1915 to foster aeronautical research and development.</t>
+          <t>After the end of WorldWar II, NACA became interested in the possibilities of guided missiles and supersonic aircraft, developing and testing the Bell X-1 in a joint program with the US Air Force.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Determined to regain American leadership in aviation, the United States Congress created the Aviation Section of the US Army Signal Corps in 1914 and established NACA in 1915 to foster aeronautical research and development.</t>
+          <t>After the end of World War II, NACA became interested in the possibilities of guided missiles and supersonic aircraft, developing and testing the Bell X-1 in a joint program with the US Air Force.</t>
         </is>
       </c>
     </row>
@@ -3291,22 +3291,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>UnitedStates'</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>United States'</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>With the UnitedStates' victory and reunification, slavery was abolished nationally.</t>
+          <t>An example of this is the import of labor-intensive goods by the UnitedStates from China.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>With the United States' victory and reunification, slavery was abolished nationally.</t>
+          <t>An example of this is the import of labor-intensive goods by the United States from China.</t>
         </is>
       </c>
     </row>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>HumanRights</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Human Rights</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>The UnitedStates of America (USA), also known as the United States (U.S.) or America, is a country primarily located in North America.</t>
+          <t>National law may become international law when treaties permit national jurisdiction to supranational tribunals such as the European Court of HumanRights or the International Criminal Court.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The United States of America (USA), also known as the United States (U.S.) or America, is a country primarily located in North America.</t>
+          <t>National law may become international law when treaties permit national jurisdiction to supranational tribunals such as the European Court of Human Rights or the International Criminal Court.</t>
         </is>
       </c>
     </row>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NewYork</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>In March 2008, Miller moved to NewYork City to find a female vocalist for some demos he was working on, and after meeting Krauss the two began collaborating.</t>
+          <t>Traditionally, the presidency was mostly a ceremonial position, with real executive authority being exercised by the primeminister of Turkey.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>In March 2008, Miller moved to New York City to find a female vocalist for some demos he was working on, and after meeting Krauss the two began collaborating.</t>
+          <t>Traditionally, the presidency was mostly a ceremonial position, with real executive authority being exercised by the prime minister of Turkey.</t>
         </is>
       </c>
     </row>
@@ -3372,22 +3372,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>post-WorldWar</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>post-World War</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>The Supreme Court of the UnitedStates (SCOTUS) is the highest court in the federal judiciary of the United States.</t>
+          <t>The conflict was between the Turkish Nationalists against Allied and separatist forces over the application of Wilsonian principles, especially self-determination, in post-WorldWar I Anatolia and eastern Thrace.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>The Supreme Court of the United States (SCOTUS) is the highest court in the federal judiciary of the United States.</t>
+          <t>The conflict was between the Turkish Nationalists against Allied and separatist forces over the application of Wilsonian principles, especially self-determination, in post-World War I Anatolia and eastern Thrace.</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3399,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>HumanRights</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>Human Rights</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The primeminister also serves as the commander-in-chief of the Japan Self Defence Forces.</t>
+          <t>This threshold has been criticized, but a complaint with the European Court for HumanRights was turned down.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>The prime minister also serves as the commander-in-chief of the Japan Self Defence Forces.</t>
+          <t>This threshold has been criticized, but a complaint with the European Court for Human Rights was turned down.</t>
         </is>
       </c>
     </row>
@@ -3426,22 +3426,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The primeminister of the United Kingdom is the head of government of the United Kingdom.</t>
+          <t>Washington, achieved few gains until after WorldWar II.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>The prime minister of the United Kingdom is the head of government of the United Kingdom.</t>
+          <t>Washington, achieved few gains until after World War II.</t>
         </is>
       </c>
     </row>
@@ -3453,22 +3453,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Harvard University is a private Ivy League research university in Cambridge, Massachusetts, UnitedStates.</t>
+          <t>The city was occupied by Italy for three years in the aftermath of WorldWar I, but was returned to Turkey during the Turkish War of Independence.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Harvard University is a private Ivy League research university in Cambridge, Massachusetts, United States.</t>
+          <t>The city was occupied by Italy for three years in the aftermath of World War I, but was returned to Turkey during the Turkish War of Independence.</t>
         </is>
       </c>
     </row>
@@ -3480,22 +3480,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeministers</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime ministers</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>As First Lord of the Admiralty before and during the First WorldWar he oversaw the disastrous naval attack on the Dardanelles (a prelude to the Gallipoli campaign) and was demoted to Chancellor of the Duchy of Lancaster.</t>
+          <t>In some cases, primeministers may choose to hold additional ministerial posts (e.g.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>As First Lord of the Admiralty before and during the First World War he oversaw the disastrous naval attack on the Dardanelles (a prelude to the Gallipoli campaign) and was demoted to Chancellor of the Duchy of Lancaster.</t>
+          <t>In some cases, prime ministers may choose to hold additional ministerial posts (e.g.</t>
         </is>
       </c>
     </row>
@@ -3507,22 +3507,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>primeminister.</t>
+          <t>UnitedStates'</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>prime minister.</t>
+          <t>United States'</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>In 2008, a public opinion survey showed that 51 per cent of Canadians believed they voted to directly elect the primeminister.</t>
+          <t>With the UnitedStates' victory and reunification, slavery was abolished nationally.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>In 2008, a public opinion survey showed that 51 per cent of Canadians believed they voted to directly elect the prime minister.</t>
+          <t>With the United States' victory and reunification, slavery was abolished nationally.</t>
         </is>
       </c>
     </row>
@@ -3534,22 +3534,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>NewYork</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Sanae Takaichi succeeded Shigeru Ishiba as primeminister on 21 October 2025, following the 2025 Liberal Democratic Party presidential election; she is the first woman to serve as either president of the Liberal Democratic Party or prime minister.</t>
+          <t>In March 2008, Miller moved to NewYork City to find a female vocalist for some demos he was working on, and after meeting Krauss the two began collaborating.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sanae Takaichi succeeded Shigeru Ishiba as prime minister on 21 October 2025, following the 2025 Liberal Democratic Party presidential election; she is the first woman to serve as either president of the Liberal Democratic Party or prime minister.</t>
+          <t>In March 2008, Miller moved to New York City to find a female vocalist for some demos he was working on, and after meeting Krauss the two began collaborating.</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>The Soviet Union (Interkosmos), the UnitedStates (NASA), China (CNSA), India (ISRO), and Japan (JAXA) are the only five nations to have successfully achieved soft landings.</t>
+          <t>The UnitedStates also asserts sovereignty over five major island territories and various uninhabited islands in Oceania and the Caribbean.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>The Soviet Union (Interkosmos), the United States (NASA), China (CNSA), India (ISRO), and Japan (JAXA) are the only five nations to have successfully achieved soft landings.</t>
+          <t>The United States also asserts sovereignty over five major island territories and various uninhabited islands in Oceania and the Caribbean.</t>
         </is>
       </c>
     </row>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>The primeminister of Canada is the head of government of Canada.</t>
+          <t>The primeminister is nominated by both houses of the Diet, before the conduct of any other business.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>The prime minister of Canada is the head of government of Canada.</t>
+          <t>The prime minister is nominated by both houses of the Diet, before the conduct of any other business.</t>
         </is>
       </c>
     </row>
@@ -3615,22 +3615,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>primeministers</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>prime ministers</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>In some cases, primeministers may choose to hold additional ministerial posts (e.g.</t>
+          <t>Early conceptions of the office of primeminister evolved as the primus inter pares ("first among equals"); however that does not differentiate on status and responsibility upon whoever is holding office.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>In some cases, prime ministers may choose to hold additional ministerial posts (e.g.</t>
+          <t>Early conceptions of the office of prime minister evolved as the primus inter pares ("first among equals"); however that does not differentiate on status and responsibility upon whoever is holding office.</t>
         </is>
       </c>
     </row>
@@ -3642,22 +3642,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>UnitedStates's</t>
+          <t>NewYork,</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>United States's</t>
+          <t>New York,</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>The Eisenhower Administration decided to split the UnitedStates's military and civil spaceflight programs, which were organized together under the Department of Defense's Advanced Research Projects Agency.</t>
+          <t>Meanwhile, the Ethnological Society of NewYork, now the American Ethnological Society, was founded on its model in 1842, as well as the Ethnological Society of London in 1843, a break-away group of the Aborigines' Protection Society.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>The Eisenhower Administration decided to split the United States's military and civil spaceflight programs, which were organized together under the Department of Defense's Advanced Research Projects Agency.</t>
+          <t>Meanwhile, the Ethnological Society of New York, now the American Ethnological Society, was founded on its model in 1842, as well as the Ethnological Society of London in 1843, a break-away group of the Aborigines' Protection Society.</t>
         </is>
       </c>
     </row>
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>primeminister,</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>prime minister,</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>As of 2025, 58 people (55 men and 3 women) have served as primeminister, the first of whom was Robert Walpole taking office on 3 April 1721.</t>
+          <t>The primeminister of Japan (内閣総理大臣, Naikaku Sōri Daijin; Japanese pronunciation: [naꜜi.ka.kɯ | soː.ɾʲi daꜜi.dʑiɴ]) is the head of government of Japan.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>As of 2025, 58 people (55 men and 3 women) have served as prime minister, the first of whom was Robert Walpole taking office on 3 April 1721.</t>
+          <t>The prime minister of Japan (内閣総理大臣, Naikaku Sōri Daijin; Japanese pronunciation: [naꜜi.ka.kɯ | soː.ɾʲi daꜜi.dʑiɴ]) is the head of government of Japan.</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>primeminister's</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>prime minister's</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>In liberal democratic states that practice parliamentary democracy, the government in the form of the primeminister and the cabinet is elected by the legislature.</t>
+          <t>The primeminister's official residence and office is 10 Downing Street in London.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>In liberal democratic states that practice parliamentary democracy, the government in the form of the prime minister and the cabinet is elected by the legislature.</t>
+          <t>The prime minister's official residence and office is 10 Downing Street in London.</t>
         </is>
       </c>
     </row>
@@ -3723,22 +3723,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Colleges and universities in the UnitedStates have often published official or unofficial books listing their students, faculty, or staff, together with pictures and limited biographical data.</t>
+          <t>It is governed by its 189 member countries, though the UnitedStates, as its largest shareholder, has traditionally appointed its president.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Colleges and universities in the United States have often published official or unofficial books listing their students, faculty, or staff, together with pictures and limited biographical data.</t>
+          <t>It is governed by its 189 member countries, though the United States, as its largest shareholder, has traditionally appointed its president.</t>
         </is>
       </c>
     </row>
@@ -3750,22 +3750,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>The Second WorldWar and its aftermath provoked greater interest and scholarship in international relations, particularly in North America and Western Europe, where it was shaped considerably by the geostrategic concerns of the Cold War.</t>
+          <t>The longest-serving primeminister was Shinzo Abe, who served over eight years across two non-consecutive terms, and the shortest-serving was Prince Naruhiko Higashikuni, who served fifty-four days.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>The Second World War and its aftermath provoked greater interest and scholarship in international relations, particularly in North America and Western Europe, where it was shaped considerably by the geostrategic concerns of the Cold War.</t>
+          <t>The longest-serving prime minister was Shinzo Abe, who served over eight years across two non-consecutive terms, and the shortest-serving was Prince Naruhiko Higashikuni, who served fifty-four days.</t>
         </is>
       </c>
     </row>
@@ -3777,22 +3777,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>As of 2013 it has sold 180,000 copies in UnitedStates according to Nielsen SoundScan.</t>
+          <t>WorldWar II or the Second World War (1 September 1939 – 2 September 1945) was a global conflict between two coalitions: the Allies and the Axis powers.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>As of 2013 it has sold 180,000 copies in United States according to Nielsen SoundScan.</t>
+          <t>World War II or the Second World War (1 September 1939 – 2 September 1945) was a global conflict between two coalitions: the Allies and the Axis powers.</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>The civil rights movement was a social movement in the UnitedStates from 1954 to 1968 which aimed to abolish legalized racial segregation, discrimination, and disenfranchisement in the country, which most commonly affected African Americans.</t>
+          <t>The primeminister alongside the cabinet proposes new legislation and decides on key policies that fit their agenda which are then passed by an act of parliament.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The civil rights movement was a social movement in the United States from 1954 to 1968 which aimed to abolish legalized racial segregation, discrimination, and disenfranchisement in the country, which most commonly affected African Americans.</t>
+          <t>The prime minister alongside the cabinet proposes new legislation and decides on key policies that fit their agenda which are then passed by an act of parliament.</t>
         </is>
       </c>
     </row>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>primeministers</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>prime ministers</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Since the Confederation of Canada in 1867, 24 primeministers have formed 30 ministries.</t>
+          <t>The position of primeminister is not outlined in any Canadian constitutional document and is mentioned only in a few sections of the Constitution Act, 1982, and in the Letters Patent, 1947 issued by King George VI.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Since the Confederation of Canada in 1867, 24 prime ministers have formed 30 ministries.</t>
+          <t>The position of prime minister is not outlined in any Canadian constitutional document and is mentioned only in a few sections of the Constitution Act, 1982, and in the Letters Patent, 1947 issued by King George VI.</t>
         </is>
       </c>
     </row>
@@ -3858,22 +3858,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>The longest-serving primeminister to date is Shinzo Abe, who served in two non-consecutive terms for 8 years, 267 days: from 26 September 2006 until 26 September 2007, and from 26 December 2012 until 16 September 2020.</t>
+          <t>Turkey joined NATO in 1952, strengthening its bilateral ties with the UnitedStates.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>The longest-serving prime minister to date is Shinzo Abe, who served in two non-consecutive terms for 8 years, 267 days: from 26 September 2006 until 26 September 2007, and from 26 December 2012 until 16 September 2020.</t>
+          <t>Turkey joined NATO in 1952, strengthening its bilateral ties with the United States.</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>WorldWar,</t>
+          <t>HumanRights</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>World War,</t>
+          <t>Human Rights</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Indeed, when the Fourth Republic was created, after the Second WorldWar, it was a parliamentary system, in which the office of President of the Republic was a largely ceremonial one.</t>
+          <t>The Universal Declaration of HumanRights (UDHR) has since inspired numerous international treaties and national laws aimed at promoting and protecting human rights worldwide.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Indeed, when the Fourth Republic was created, after the Second World War, it was a parliamentary system, in which the office of President of the Republic was a largely ceremonial one.</t>
+          <t>The Universal Declaration of Human Rights (UDHR) has since inspired numerous international treaties and national laws aimed at promoting and protecting human rights worldwide.</t>
         </is>
       </c>
     </row>
@@ -3922,12 +3922,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>While there is no legal requirement for the primeminister to be an MP, for practical and political reasons the prime minister is expected to win a seat very promptly.</t>
+          <t>Sanae Takaichi succeeded Shigeru Ishiba as primeminister on 21 October 2025, following the 2025 Liberal Democratic Party presidential election; she is the first woman to serve as either president of the Liberal Democratic Party or prime minister.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>While there is no legal requirement for the prime minister to be an MP, for practical and political reasons the prime minister is expected to win a seat very promptly.</t>
+          <t>Sanae Takaichi succeeded Shigeru Ishiba as prime minister on 21 October 2025, following the 2025 Liberal Democratic Party presidential election; she is the first woman to serve as either president of the Liberal Democratic Party or prime minister.</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3939,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SouthKorea.</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>South Korea.</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>On 3 June 2025, Lee Jae Myung of the Democratic Party was elected as president of SouthKorea.</t>
+          <t>The court consists of nine justices—the chief justice of the UnitedStates and eight associate justices—who meet at the Supreme Court Building in Washington, D.C.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>On 3 June 2025, Lee Jae Myung of the Democratic Party was elected as president of South Korea.</t>
+          <t>The court consists of nine justices—the chief justice of the United States and eight associate justices—who meet at the Supreme Court Building in Washington, D.C.</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>NewYork</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>The primeminister advises the sovereign on the exercise of much of the royal prerogative, chairs the Cabinet, and selects its ministers.</t>
+          <t>A member of the Democratic Party, Roosevelt served in the NewYork State Senate from 1911 to 1913 and as the 44th governor of New York from 1929 to 1932.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>The prime minister advises the sovereign on the exercise of much of the royal prerogative, chairs the Cabinet, and selects its ministers.</t>
+          <t>A member of the Democratic Party, Roosevelt served in the New York State Senate from 1911 to 1913 and as the 44th governor of New York from 1929 to 1932.</t>
         </is>
       </c>
     </row>
@@ -3993,22 +3993,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SouthKorean</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>South Korean</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Chapter 3 of the SouthKorean constitution states the duties and the powers of the president.</t>
+          <t>The causes of WorldWar II included unresolved tensions in the aftermath of World War I, and the rise of fascism in Europe and militarism in Japan.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Chapter 3 of the South Korean constitution states the duties and the powers of the president.</t>
+          <t>The causes of World War II included unresolved tensions in the aftermath of World War I, and the rise of fascism in Europe and militarism in Japan.</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4020,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>The position of primeminister was not created but evolved slowly and organically over three hundred years due to numerous Acts of Parliament, political developments, and accidents of history.</t>
+          <t>Initially, its loans helped rebuild countries devastated by WorldWar II.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>The position of prime minister was not created but evolved slowly and organically over three hundred years due to numerous Acts of Parliament, political developments, and accidents of history.</t>
+          <t>Initially, its loans helped rebuild countries devastated by World War II.</t>
         </is>
       </c>
     </row>
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>primeminister,</t>
+          <t>MiddleEast,</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>prime minister,</t>
+          <t>Middle East,</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>As of 2026, Sixty-six people (sixty-five men and one woman) have served as primeminister, the first of whom was Itō Hirobumi taking office on 22 December 1885.</t>
+          <t>It is considered to be a regional power in the MiddleEast, North Africa and the Muslim world, and a middle power worldwide.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>As of 2026, Sixty-six people (sixty-five men and one woman) have served as prime minister, the first of whom was Itō Hirobumi taking office on 22 December 1885.</t>
+          <t>It is considered to be a regional power in the Middle East, North Africa and the Muslim world, and a middle power worldwide.</t>
         </is>
       </c>
     </row>
@@ -4074,22 +4074,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NewYork</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>He was elected to the NewYork State Senate in 1910, before becoming the assistant secretary of the Navy under President Woodrow Wilson from 1913 to 1920.</t>
+          <t>February 11, 1731] – December 14, 1799) was a Founding Father and the first president of the UnitedStates, serving from 1789 to 1797.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>He was elected to the New York State Senate in 1910, before becoming the assistant secretary of the Navy under President Woodrow Wilson from 1913 to 1920.</t>
+          <t>February 11, 1731] – December 14, 1799) was a Founding Father and the first president of the United States, serving from 1789 to 1797.</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>UnitedStates.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>United States.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>In 1933, while Einstein was visiting the UnitedStates, Adolf Hitler came to power in Germany.</t>
+          <t>Spanish colonization established Spanish Florida in 1513, the first European colony in what is now the continental UnitedStates.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>In 1933, while Einstein was visiting the United States, Adolf Hitler came to power in Germany.</t>
+          <t>Spanish colonization established Spanish Florida in 1513, the first European colony in what is now the continental United States.</t>
         </is>
       </c>
     </row>
@@ -4128,22 +4128,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>At the outbreak of the Second WorldWar he was re-appointed First Lord of the Admiralty.</t>
+          <t>In 2008, a public opinion survey showed that 51 per cent of Canadians believed they voted to directly elect the primeminister.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>At the outbreak of the Second World War he was re-appointed First Lord of the Admiralty.</t>
+          <t>In 2008, a public opinion survey showed that 51 per cent of Canadians believed they voted to directly elect the prime minister.</t>
         </is>
       </c>
     </row>
@@ -4155,22 +4155,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>primeminister's</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>prime minister's</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>The appointment of cabinet ministers and granting of honours are done through the primeminister's power of appointment.</t>
+          <t>He previously served as the 25th primeminister from 2003 to 2014 as part of the Justice and Development Party (AKP), which he co-founded in 2001.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>The appointment of cabinet ministers and granting of honours are done through the prime minister's power of appointment.</t>
+          <t>He previously served as the 25th prime minister from 2003 to 2014 as part of the Justice and Development Party (AKP), which he co-founded in 2001.</t>
         </is>
       </c>
     </row>
@@ -4182,22 +4182,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>An example of this is the import of labor-intensive goods by the UnitedStates from China.</t>
+          <t>Founded as a radical revolutionary group seeking to prevent a collapse of the Ottoman Empire, by the eve of WorldWar I it decided that the solution was to implement nationalist and centralizing policies.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>An example of this is the import of labor-intensive goods by the United States from China.</t>
+          <t>Founded as a radical revolutionary group seeking to prevent a collapse of the Ottoman Empire, by the eve of World War I it decided that the solution was to implement nationalist and centralizing policies.</t>
         </is>
       </c>
     </row>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>SouthKorea.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>South Korea.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>He rose to prominence with his role in the Defence of Gallipoli during WorldWar I.</t>
+          <t>On 3 June 2025, Lee Jae Myung of the Democratic Party was elected as president of SouthKorea.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>He rose to prominence with his role in the Defence of Gallipoli during World War I.</t>
+          <t>On 3 June 2025, Lee Jae Myung of the Democratic Party was elected as president of South Korea.</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>HumanRights</t>
+          <t>MiddleEast,</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Human Rights</t>
+          <t>Middle East,</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>The right to freedom of expression has been recognised as a human right in the Universal Declaration of HumanRights (UDHR) and international human rights law.</t>
+          <t>Major areas of conflict included Europe and the MiddleEast, as well as parts of Africa and the Asia-Pacific.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>The right to freedom of expression has been recognised as a human right in the Universal Declaration of Human Rights (UDHR) and international human rights law.</t>
+          <t>Major areas of conflict included Europe and the Middle East, as well as parts of Africa and the Asia-Pacific.</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>In the resulting Treaty of Paris in 1783, the British acknowledged the sovereign independence of the UnitedStates.</t>
+          <t>The term elect means "to select or to nominate", so sometimes other forms of balloting such as referendums are referred to as elections, especially in the UnitedStates.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>In the resulting Treaty of Paris in 1783, the British acknowledged the sovereign independence of the United States.</t>
+          <t>The term elect means "to select or to nominate", so sometimes other forms of balloting such as referendums are referred to as elections, especially in the United States.</t>
         </is>
       </c>
     </row>
@@ -4290,22 +4290,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>HumanRights</t>
+          <t>WorldWar</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Human Rights</t>
+          <t>World War</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>National law may become international law when treaties permit national jurisdiction to supranational tribunals such as the European Court of HumanRights or the International Criminal Court.</t>
+          <t>Turkey remained neutral during most of WorldWar II, but was involved in the Korean War.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>National law may become international law when treaties permit national jurisdiction to supranational tribunals such as the European Court of Human Rights or the International Criminal Court.</t>
+          <t>Turkey remained neutral during most of World War II, but was involved in the Korean War.</t>
         </is>
       </c>
     </row>
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>The power of the office of primeminister has grown significantly since the first prime minister, Robert Walpole in 1721.</t>
+          <t>In the 2010 UnitedStates National Space Policy, the ISS was given additional roles of serving commercial, diplomatic, and educational purposes.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The power of the office of prime minister has grown significantly since the first prime minister, Robert Walpole in 1721.</t>
+          <t>In the 2010 United States National Space Policy, the ISS was given additional roles of serving commercial, diplomatic, and educational purposes.</t>
         </is>
       </c>
     </row>
@@ -4344,22 +4344,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>UnitedStates,</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United States,</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>When they heard about DVDs, first introduced in the UnitedStates in early 1997, they tested the concept of online DVD rental or sales by mail, by mailing a compact disc to Hastings's house in Santa Cruz.</t>
+          <t>Prior to declaring war against the Axis powers on February 23, 1945, Turkey's primary ally had been the UnitedStates, with both countries aiming to contain Soviet expansion.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>When they heard about DVDs, first introduced in the United States in early 1997, they tested the concept of online DVD rental or sales by mail, by mailing a compact disc to Hastings's house in Santa Cruz.</t>
+          <t>Prior to declaring war against the Axis powers on February 23, 1945, Turkey's primary ally had been the United States, with both countries aiming to contain Soviet expansion.</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Sadat served as president until his assassination in October 1981, and shared the Nobel Peace Prize with Israeli primeminister Menachem Begin in 1978 for initiating peace talks between the two countries.</t>
+          <t>As well as being head of government, being primeminister may require holding other roles or posts—the prime minister of the United Kingdom, for example, is also First Lord of the Treasury and Minister for the Civil Service.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sadat served as president until his assassination in October 1981, and shared the Nobel Peace Prize with Israeli prime minister Menachem Begin in 1978 for initiating peace talks between the two countries.</t>
+          <t>As well as being head of government, being prime minister may require holding other roles or posts—the prime minister of the United Kingdom, for example, is also First Lord of the Treasury and Minister for the Civil Service.</t>
         </is>
       </c>
     </row>
@@ -4398,22 +4398,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeministers</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime ministers</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Washington, achieved few gains until after WorldWar II.</t>
+          <t>Modern primeministers hold office by virtue of their ability to command the confidence of the House of Commons, so they are invariably members of Parliament.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Washington, achieved few gains until after World War II.</t>
+          <t>Modern prime ministers hold office by virtue of their ability to command the confidence of the House of Commons, so they are invariably members of Parliament.</t>
         </is>
       </c>
     </row>
@@ -4425,22 +4425,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>WorldWar</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>World War</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>On the eve of WorldWar II, he endorsed a letter to President Franklin D.</t>
+          <t>Sadat served as president until his assassination in October 1981, and shared the Nobel Peace Prize with Israeli primeminister Menachem Begin in 1978 for initiating peace talks between the two countries.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>On the eve of World War II, he endorsed a letter to President Franklin D.</t>
+          <t>Sadat served as president until his assassination in October 1981, and shared the Nobel Peace Prize with Israeli prime minister Menachem Begin in 1978 for initiating peace talks between the two countries.</t>
         </is>
       </c>
     </row>
@@ -4462,12 +4462,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>In a minority of systems, notably in semi-presidential systems, a primeminister is the official appointed to manage the civil service and execute the directives of the head of state.</t>
+          <t>The primeminister also serves as the commander-in-chief of the Japan Self Defence Forces.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>In a minority of systems, notably in semi-presidential systems, a prime minister is the official appointed to manage the civil service and execute the directives of the head of state.</t>
+          <t>The prime minister also serves as the commander-in-chief of the Japan Self Defence Forces.</t>
         </is>
       </c>
     </row>
@@ -4479,22 +4479,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>UnitedStates</t>
+          <t>"primeminister"</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>"prime minister"</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>He led the UnitedStates through the American Civil War, defeating the Confederate States and playing a major role in the abolition of slavery.</t>
+          <t>The term "primeminister" is attested in 17th century sources referring to Cardinal Richelieu, after he was named premier ministre to head the French royal council in 1624.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>He led the United States through the American Civil War, defeating the Confederate States and playing a major role in the abolition of slavery.</t>
+          <t>The term "prime minister" is attested in 17th century sources referring to Cardinal Richelieu, after he was named premier ministre to head the French royal council in 1624.</t>
         </is>
       </c>
     </row>
@@ -4506,22 +4506,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Not outlined in any constitutional document, the primeminister is appointed by the monarch's representative, the governor general, and the office exists per long-established convention.</t>
+          <t>Determined to regain American leadership in aviation, the UnitedStates Congress created the Aviation Section of the US Army Signal Corps in 1914 and established NACA in 1915 to foster aeronautical research and development.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Not outlined in any constitutional document, the prime minister is appointed by the monarch's representative, the governor general, and the office exists per long-established convention.</t>
+          <t>Determined to regain American leadership in aviation, the United States Congress created the Aviation Section of the US Army Signal Corps in 1914 and established NACA in 1915 to foster aeronautical research and development.</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4543,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>He advanced civil rights for people of color in the UnitedStates through the use of nonviolent resistance and civil disobedience against Jim Crow laws and other forms of legalized discrimination, which most commonly affected African Americans.</t>
+          <t>Under Article Three of the UnitedStates Constitution, the composition and procedures of the Supreme Court were originally established by the 1st Congress through the Judiciary Act of 1789.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>He advanced civil rights for people of color in the United States through the use of nonviolent resistance and civil disobedience against Jim Crow laws and other forms of legalized discrimination, which most commonly affected African Americans.</t>
+          <t>Under Article Three of the United States Constitution, the composition and procedures of the Supreme Court were originally established by the 1st Congress through the Judiciary Act of 1789.</t>
         </is>
       </c>
     </row>
@@ -4560,22 +4560,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>primeminister</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>He previously served as the 25th primeminister from 2003 to 2014 as part of the Justice and Development Party (AKP), which he co-founded in 2001.</t>
+          <t>The American Revolution was a political movement in the Thirteen Colonies of Great Britain and the UnitedStates which the colonies founded.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>He previously served as the 25th prime minister from 2003 to 2014 as part of the Justice and Development Party (AKP), which he co-founded in 2001.</t>
+          <t>The American Revolution was a political movement in the Thirteen Colonies of Great Britain and the United States which the colonies founded.</t>
         </is>
       </c>
     </row>
@@ -4587,22 +4587,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>It is governed by its 189 member countries, though the UnitedStates, as its largest shareholder, has traditionally appointed its president.</t>
+          <t>Under some presidential systems, such as South Korea and Peru, the primeminister is the leader or the most senior member of the cabinet, but not the head of government.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>It is governed by its 189 member countries, though the United States, as its largest shareholder, has traditionally appointed its president.</t>
+          <t>Under some presidential systems, such as South Korea and Peru, the prime minister is the leader or the most senior member of the cabinet, but not the head of government.</t>
         </is>
       </c>
     </row>
@@ -4614,22 +4614,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>primeminister's</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>prime minister's</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>In Japanese, due to the special nature of the work of the head of government, the primeminister's titles vary depending on context, sometimes demonstrating their role.</t>
+          <t>The president of the UnitedStates (POTUS) is the head of state and head of government of the United States.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>In Japanese, due to the special nature of the work of the head of government, the prime minister's titles vary depending on context, sometimes demonstrating their role.</t>
+          <t>The president of the United States (POTUS) is the head of state and head of government of the United States.</t>
         </is>
       </c>
     </row>
@@ -4641,22 +4641,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NorthKorea,</t>
+          <t>primeminister</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>North Korea,</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Only a few nominally Communist governments remain, such as China, Cuba, Laos, NorthKorea, and Vietnam.</t>
+          <t>The primeminister lives and works at the Naikaku Sōri Daijin Kantei (Prime Minister's Official Residence) in Nagatachō, Chiyoda, Tokyo, close to the National Diet Building.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Only a few nominally Communist governments remain, such as China, Cuba, Laos, North Korea, and Vietnam.</t>
+          <t>The prime minister lives and works at the Naikaku Sōri Daijin Kantei (Prime Minister's Official Residence) in Nagatachō, Chiyoda, Tokyo, close to the National Diet Building.</t>
         </is>
       </c>
     </row>
@@ -4668,22 +4668,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>UnitedStates.</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>United States.</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>These changes were the outcome of the associated American Revolutionary War and the consequential sovereign independence of the former colonies as the UnitedStates.</t>
+          <t>Early elections in countries such as the United Kingdom and the UnitedStates were dominated by landed or ruling class males.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>These changes were the outcome of the associated American Revolutionary War and the consequential sovereign independence of the former colonies as the United States.</t>
+          <t>Early elections in countries such as the United Kingdom and the United States were dominated by landed or ruling class males.</t>
         </is>
       </c>
     </row>
@@ -4695,22 +4695,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>UnitedStates,</t>
+          <t>UnitedStates</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>United States,</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>It is a part of Big Tech along with five other tech companies in the UnitedStates, Alphabet (Google), Amazon, Apple, Meta (Facebook), and Nvidia, which are also the largest companies in the world by market capitalization.</t>
+          <t>The 1st UnitedStates Congress provided the detailed organization of a federal judiciary through the Judiciary Act of 1789.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>It is a part of Big Tech along with five other tech companies in the United States, Alphabet (Google), Amazon, Apple, Meta (Facebook), and Nvidia, which are also the largest companies in the world by market capitalization.</t>
+          <t>The 1st United States Congress provided the detailed organization of a federal judiciary through the Judiciary Act of 1789.</t>
         </is>
       </c>
     </row>
